--- a/biology/Médecine/Muscle_tenseur_du_voile_du_palais/Muscle_tenseur_du_voile_du_palais.xlsx
+++ b/biology/Médecine/Muscle_tenseur_du_voile_du_palais/Muscle_tenseur_du_voile_du_palais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle tenseur du voile du palais (ou muscle péristaphylin externe ou  muscle sphéno-salpingo-staphylin ou muscle ptérygo-staphylin ou muscle sphéno-staphylin)[1] est un muscle du pharynx
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle tenseur du voile du palais (ou muscle péristaphylin externe ou  muscle sphéno-salpingo-staphylin ou muscle ptérygo-staphylin ou muscle sphéno-staphylin) est un muscle du pharynx
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Insertions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>couche superficielle : fosse scaphoïde jusqu'à l'épine du sphénoïde en contournant le bord post de la grande aile du sphénoïde en rétrécissant. Se réfléchit sur l'hamulus pour devenir horizontal et s'insère en éventail sur le bord postérieur de la lame horizontale du palatin et sur l'éventail contre-latéral. Rôle : relever le voile du palais.
 couche interne : s'insère sur le bord latéral de la trompe auditive en éventail et descend sur hamulus. Rôle : ouverture de la trompe auditive lors de la déglutition.</t>
@@ -542,7 +556,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">sensitive : nerf grand palatin et palatins accessoires
 motrice : nerf mandibulaire, branche du nerf trijumeau
